--- a/xlsx/宾夕法尼亚州_intext.xlsx
+++ b/xlsx/宾夕法尼亚州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="534">
   <si>
     <t>宾夕法尼亚州</t>
   </si>
@@ -29,25 +29,25 @@
     <t>宾夕法尼亚 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_宾夕法尼亚州</t>
+    <t>政策_政策_美国_宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓州</t>
+    <t>宾州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>賓夕法尼亞州州旗</t>
+    <t>宾夕法尼亚州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E6%B2%83%E7%88%BE%E5%A4%AB_(%E6%94%BF%E6%B2%BB%E5%AE%B6)</t>
   </si>
   <si>
-    <t>湯姆·沃爾夫 (政治家)</t>
+    <t>汤姆·沃尔夫 (政治家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Pennsylvania</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國東南部</t>
+    <t>美国东南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國北部</t>
+    <t>美国北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E6%B9%96</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E7%93%A6%E5%B7%9E</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E8%A1%8C</t>
@@ -503,79 +503,79 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E7%A7%8D%E4%BA%BA</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
@@ -641,13 +641,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
+    <t>犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A3%E6%95%99</t>
   </si>
   <si>
-    <t>東正教</t>
+    <t>东正教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E6%96%AF%E5%85%8B%E5%B0%8F%E5%B2%9B%E5%B7%9E%E7%AB%8B%E5%85%AC%E5%9B%AD</t>
@@ -659,19 +659,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克勞福德縣 (賓夕法尼亞州)</t>
+    <t>克劳福德县 (宾夕法尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E9%87%8C%E6%81%A9%E7%B8%A3</t>
   </si>
   <si>
-    <t>克拉里恩縣</t>
+    <t>克拉里恩县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%96%AF%E5%A5%8E%E5%93%88%E7%B4%8D%E6%B2%B3</t>
   </si>
   <si>
-    <t>薩斯奎哈納河</t>
+    <t>萨斯奎哈纳河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%A0%A1</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%A3%AE%E4%BC%AF%E8%98%AD%E7%B8%A3_(%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>諾森伯蘭縣 (賓夕法尼亞州)</t>
+    <t>诺森伯兰县 (宾夕法尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%9C%AC</t>
@@ -695,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%81%A9</t>
   </si>
   <si>
-    <t>韋恩</t>
+    <t>韦恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E7%BE%85%E7%B8%A3_(%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>門羅縣 (賓夕法尼亞州)</t>
+    <t>门罗县 (宾夕法尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E5%85%8B</t>
@@ -743,13 +743,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E7%B8%A3</t>
   </si>
   <si>
-    <t>費城縣</t>
+    <t>费城县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%88%A9%E6%A0%B9%E5%B0%BC%E7%B8%A3_(%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>阿利根尼縣 (賓夕法尼亞州)</t>
+    <t>阿利根尼县 (宾夕法尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E5%AD%A6%E9%99%A2</t>
@@ -791,13 +791,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%BB%B3</t>
   </si>
   <si>
-    <t>獨立廳</t>
+    <t>独立厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>富蘭克林研究所</t>
+    <t>富兰克林研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E%E9%93%B8%E5%B8%81%E5%B1%80</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%99%82</t>
   </si>
   <si>
-    <t>好時</t>
+    <t>好时</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pennsylvania_State_Capitol_Complex</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%81%E8%98%87%E6%89%98%E5%B0%BC</t>
   </si>
   <si>
-    <t>旁蘇托尼</t>
+    <t>旁苏托尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%8B%A8%E9%BC%A0%E6%97%A5</t>
@@ -887,19 +887,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%85%A7%E5%9F%BA%E8%87%AA%E7%84%B6%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>卡內基自然史博物館</t>
+    <t>卡内基自然史博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%85%A7%E5%9F%BA%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
   </si>
   <si>
-    <t>卡內基美術館</t>
+    <t>卡内基美术馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%B5%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>理海大學</t>
+    <t>理海大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%86%85%E5%9F%BA%E6%A2%85%E9%9A%86%E5%A4%A7%E5%AD%A6</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%93%E5%85%8B%E7%B4%A2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>卓克索大學</t>
+    <t>卓克索大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -929,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%99%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>天普大學</t>
+    <t>天普大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E6%8B%89%E8%AF%BA%E7%93%A6%E5%A4%A7%E5%AD%A6</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9E%97%E8%8C%85%E7%88%BE%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>布林茅爾學院</t>
+    <t>布林茅尔学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E9%87%91%E6%A3%AE%E5%AD%A6%E9%99%A2</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>費城國際機場</t>
+    <t>费城国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
@@ -983,15 +983,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1</t>
   </si>
   <si>
-    <t>匹茲堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/78%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
@@ -1001,25 +995,25 @@
     <t>https://zh.wikipedia.org/wiki/80%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>80號州際公路</t>
+    <t>80号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/81%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>81號州際公路</t>
+    <t>81号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/83%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>83號州際公路</t>
+    <t>83号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E9%90%B5%E8%B7%AF%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>賓夕法尼亞鐵路公司</t>
+    <t>宾夕法尼亚铁路公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFL</t>
@@ -1031,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E8%80%81%E9%B7%B9</t>
   </si>
   <si>
-    <t>費城老鷹</t>
+    <t>费城老鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E5%85%B9%E5%A0%A1%E9%92%A2%E4%BA%BA</t>
@@ -1049,31 +1043,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E8%B2%BB%E5%9F%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>費城費城人</t>
+    <t>费城费城人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E6%B5%B7%E7%9B%9C</t>
   </si>
   <si>
-    <t>匹茲堡海盜</t>
+    <t>匹兹堡海盗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%B4%8B%E5%9F%BA</t>
   </si>
   <si>
-    <t>紐約洋基</t>
+    <t>纽约洋基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E8%80%81%E8%99%8E</t>
@@ -1085,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%9C%8B%E6%B0%91</t>
   </si>
   <si>
-    <t>華盛頓國民</t>
+    <t>华盛顿国民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -1109,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E4%BC%81%E9%B5%9D</t>
   </si>
   <si>
-    <t>匹茲堡企鵝</t>
+    <t>匹兹堡企鹅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BF</t>
@@ -1163,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9E%A2%E7%81%AB%E8%9F%B2</t>
   </si>
   <si>
-    <t>螢火蟲</t>
+    <t>萤火虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E6%9D%89</t>
@@ -1175,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B1%B3%E4%BB%80%E6%A0%A1%E5%9C%92%E6%A7%8D%E6%93%8A%E6%A1%88</t>
   </si>
   <si>
-    <t>阿米什校園槍擊案</t>
+    <t>阿米什校园枪击案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/United_States_Geological_Survey</t>
@@ -1193,15 +1187,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美国州份</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
   </si>
   <si>
@@ -1217,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -1235,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -1253,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1289,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -1313,13 +1304,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
   </si>
   <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -1331,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1343,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -1355,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1379,9 +1367,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
   </si>
   <si>
-    <t>纽约州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
   </si>
   <si>
@@ -1397,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1409,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1475,7 +1460,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1487,19 +1472,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1517,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1529,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1541,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1553,25 +1538,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1601,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1619,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1631,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -6700,7 +6685,7 @@
         <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="G163" t="n">
         <v>13</v>
@@ -6726,10 +6711,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>96</v>
       </c>
       <c r="G164" t="n">
         <v>6</v>
@@ -6755,10 +6740,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6784,10 +6769,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6813,10 +6798,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6842,10 +6827,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6871,10 +6856,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6900,10 +6885,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6929,10 +6914,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6958,10 +6943,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6987,10 +6972,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -7016,10 +7001,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7045,10 +7030,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -7074,10 +7059,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7103,10 +7088,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7132,10 +7117,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7161,10 +7146,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7190,10 +7175,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7219,10 +7204,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7248,10 +7233,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7277,10 +7262,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7306,10 +7291,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7335,10 +7320,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7364,10 +7349,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7393,10 +7378,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7422,10 +7407,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7451,10 +7436,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7480,10 +7465,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7509,10 +7494,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7538,10 +7523,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7567,10 +7552,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7596,10 +7581,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7625,10 +7610,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7654,10 +7639,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7683,10 +7668,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -7712,10 +7697,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7741,10 +7726,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>90</v>
       </c>
       <c r="G199" t="n">
         <v>101</v>
@@ -7770,10 +7755,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7799,10 +7784,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7828,10 +7813,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7857,10 +7842,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7886,10 +7871,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7915,10 +7900,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7944,10 +7929,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8002,10 +7987,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8031,10 +8016,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8060,10 +8045,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8089,10 +8074,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8118,10 +8103,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8147,10 +8132,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8176,10 +8161,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8205,10 +8190,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8234,10 +8219,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8263,10 +8248,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8292,10 +8277,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8321,10 +8306,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>152</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8350,10 +8335,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8379,10 +8364,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8408,10 +8393,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8437,10 +8422,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8466,10 +8451,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8495,10 +8480,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8524,10 +8509,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8553,10 +8538,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8582,10 +8567,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8640,10 +8625,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8669,10 +8654,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>148</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8698,10 +8683,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8727,10 +8712,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8785,10 +8770,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8814,10 +8799,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8843,10 +8828,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8872,10 +8857,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8901,10 +8886,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8930,10 +8915,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8959,10 +8944,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8988,10 +8973,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9017,10 +9002,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9046,10 +9031,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9075,10 +9060,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G245" t="n">
         <v>4</v>
@@ -9133,10 +9118,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9162,10 +9147,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9191,10 +9176,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9220,10 +9205,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9249,10 +9234,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9278,10 +9263,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9307,10 +9292,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9336,10 +9321,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9365,10 +9350,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9394,10 +9379,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9423,10 +9408,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9452,10 +9437,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9481,10 +9466,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9510,10 +9495,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9539,10 +9524,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9568,10 +9553,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9597,10 +9582,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9626,10 +9611,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9655,10 +9640,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9684,10 +9669,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9713,10 +9698,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9742,10 +9727,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9771,10 +9756,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9800,10 +9785,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G270" t="n">
         <v>3</v>
@@ -9829,10 +9814,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9858,10 +9843,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9887,10 +9872,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9916,10 +9901,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9945,10 +9930,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F275" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>

--- a/xlsx/宾夕法尼亚州_intext.xlsx
+++ b/xlsx/宾夕法尼亚州_intext.xlsx
@@ -29,7 +29,7 @@
     <t>宾夕法尼亚 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_宾夕法尼亚州</t>
+    <t>体育运动_体育运动_奥林匹克运动会_宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%B7%9E</t>
@@ -2672,7 +2672,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
